--- a/data/trans_bre/P19_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>-5,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,65</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>88,5%</t>
+          <t>-8,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>235,96%</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>69,39%</t>
+          <t>-7,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,32%</t>
+          <t>-5,53%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>118,84%</t>
+          <t>-4,58%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,98%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,44%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-9,32%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-4,17%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 13,7</t>
+          <t>-13,64; -0,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 13,27</t>
+          <t>-11,08; -0,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 9,33</t>
+          <t>-9,66; 0,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 5,66</t>
+          <t>-4,61; 9,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 19,32</t>
+          <t>-7,01; 7,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 278,25</t>
+          <t>-17,92; -0,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1438,19</t>
+          <t>-12,63; 4,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,87; 327,63</t>
+          <t>-14,55; -1,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-58,1; 136,21</t>
+          <t>-11,41; -0,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 525,77</t>
+          <t>-9,87; 1,04</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 11,65</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-7,37; 9,07</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-19,09; -0,49</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-13,42; 5,03</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>-4,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>66,74%</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>185,9%</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>-4,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>56,77%</t>
+          <t>-5,17%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-0,98%</t>
+          <t>-3,06%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-3,52%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-2,88%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,08%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-2,41%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 10,38</t>
+          <t>-10,4; 0,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 10,45</t>
+          <t>-9,71; -0,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 7,34</t>
+          <t>-6,75; 0,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 8,53</t>
+          <t>-8,58; 7,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 5,8</t>
+          <t>-8,15; 2,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 244,03</t>
+          <t>-6,42; 7,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 964,19</t>
+          <t>-9,49; 7,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,5; 477,87</t>
+          <t>-10,93; 0,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-58,31; 297,98</t>
+          <t>-9,98; -1,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-59,14; 139,18</t>
+          <t>-6,89; 0,89</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-8,96; 9,23</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-8,37; 2,57</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 8,85</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-10,14; 8,68</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>42,7%</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>47,41%</t>
+          <t>-0,18%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>74,44%</t>
+          <t>-1,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>-1,85%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,1%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-2,71%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-2,25%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 4,03</t>
+          <t>-4,15; 3,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 5,23</t>
+          <t>-4,96; 2,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 4,62</t>
+          <t>-4,86; 1,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 6,16</t>
+          <t>-6,5; 0,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 6,78</t>
+          <t>-4,17; 4,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-47,34; 84,11</t>
+          <t>-7,09; 2,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 230,7</t>
+          <t>-6,83; 3,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,08; 232,25</t>
+          <t>-4,34; 4,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 282,02</t>
+          <t>-5,1; 2,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 170,16</t>
+          <t>-4,93; 1,42</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,68; 0,49</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 5,35</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-7,43; 2,35</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-7,22; 4,17</t>
         </is>
       </c>
     </row>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,89</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>157,44%</t>
+          <t>-7,87</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>81,35%</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>-7,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>-3,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>172,65%</t>
+          <t>-0,8%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-1,71%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-4,86%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-8,24%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-0,45%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 10,94</t>
+          <t>-11,04; -2,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 6,91</t>
+          <t>-6,62; 2,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 4,46</t>
+          <t>-4,22; 2,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 6,36</t>
+          <t>-6,26; 5,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 12,92</t>
+          <t>-9,65; 0,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,7; 411,25</t>
+          <t>-13,37; -2,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,08; 332,21</t>
+          <t>-6,0; 5,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,35; 111,53</t>
+          <t>-11,36; -3,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-42,85; 143,59</t>
+          <t>-6,81; 2,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,69; 465,77</t>
+          <t>-4,38; 3,06</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-6,6; 6,09</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-10,32; 0,45</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-13,84; -2,62</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-6,54; 6,84</t>
         </is>
       </c>
     </row>
@@ -1116,52 +1308,72 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>117,28%</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>329,84%</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>65,56%</t>
+          <t>-4,74%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>-5,49%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>-2,52%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,19%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-3,62%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-2,23%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-5,02%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 8,85</t>
+          <t>-8,62; -0,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 9,52</t>
+          <t>-9,44; -1,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 5,9</t>
+          <t>-6,18; 1,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 5,39</t>
+          <t>-5,33; 2,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 8,41</t>
+          <t>-9,08; 1,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 404,08</t>
+          <t>-8,37; 5,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,84; 1762,03</t>
+          <t>-10,83; 2,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 296,08</t>
+          <t>-8,97; -0,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-43,82; 149,49</t>
+          <t>-9,55; -1,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-34,9; 119,91</t>
+          <t>-6,35; 1,25</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 3,04</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-9,6; 1,47</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-9,11; 7,05</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-11,84; 2,78</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1468,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>-7,11</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>173,0%</t>
+          <t>-5,89</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>239,98%</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>-5,85%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>-7,32%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>154,95%</t>
+          <t>-0,77%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-1,33%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-8,0%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-6,13%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-7,57%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 11,59</t>
+          <t>-11,8; -1,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,59; 12,13</t>
+          <t>-13,85; -2,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 6,27</t>
+          <t>-5,72; 5,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 6,44</t>
+          <t>-5,63; 3,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,01; 13,45</t>
+          <t>-14,1; -2,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,67; 560,31</t>
+          <t>-13,18; -0,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,89; 915,34</t>
+          <t>-14,47; 0,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,58; 156,31</t>
+          <t>-12,19; -1,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,31; 185,09</t>
+          <t>-14,57; -2,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 786,72</t>
+          <t>-5,94; 6,37</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 4,23</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-14,25; -2,82</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-13,6; -0,08</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-15,48; 0,34</t>
         </is>
       </c>
     </row>
@@ -1356,52 +1628,72 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>-4,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>82,3%</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>150,25%</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>-4,79%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>-4,58%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>65,64%</t>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,59%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-3,34%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-4,68%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-3,67%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,74; 6,73</t>
+          <t>-6,66; -2,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,36</t>
+          <t>-6,61; -2,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,81</t>
+          <t>-3,88; -0,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 4,03</t>
+          <t>-3,64; 0,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 7,15</t>
+          <t>-5,43; -0,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,0; 145,1</t>
+          <t>-7,1; -1,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>70,06; 267,43</t>
+          <t>-6,18; -0,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,99; 97,73</t>
+          <t>-7,02; -2,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 86,17</t>
+          <t>-6,8; -2,67</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,65; 129,43</t>
+          <t>-4,05; -0,49</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 0,9</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; -0,94</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-7,54; -2,06</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-6,73; -0,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
